--- a/modele_test/data/sample_database.xlsx
+++ b/modele_test/data/sample_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/g.lobet/Dropbox/science/projects/lbira2130/modele_test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77B5E33-B085-5849-8C37-0AEABA82A3AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4600B62-3716-3D4B-BE5F-3399C826232A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="annual_production" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <sheet name="impacts" sheetId="5" r:id="rId5"/>
     <sheet name="production_impacts" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>id_product</t>
   </si>
@@ -103,6 +114,12 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>potato</t>
+  </si>
+  <si>
+    <t>salad</t>
   </si>
 </sst>
 </file>
@@ -388,9 +405,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="187" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -461,6 +480,62 @@
         <v>2</v>
       </c>
       <c r="D5" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
         <v>2000</v>
       </c>
     </row>
@@ -476,7 +551,9 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="192" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -558,10 +635,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -606,6 +683,34 @@
       </c>
       <c r="D3" s="2">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -620,7 +725,9 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="168" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -660,7 +767,9 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="172" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -731,7 +840,9 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
